--- a/Ecopulpers/Charts/Energy Change by Activities.xlsx
+++ b/Ecopulpers/Charts/Energy Change by Activities.xlsx
@@ -468,7 +468,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.04947261026245542</v>
+        <v>-0.008722347789444029</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8.586071680838359e-05</v>
+        <v>-1.51378112036582e-05</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>5.448086426440568e-12</v>
+        <v>-9.913082271717499e-08</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.653753021306329e-10</v>
+        <v>-1.028731060870314e-05</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>4.597859515342861e-08</v>
+        <v>-0.01655776917414187</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.403321903126198e-09</v>
+        <v>-0.0005053611931487012</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.001055345496297377</v>
+        <v>-1.085805115508265e-05</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01493177578959148</v>
+        <v>-0.0001536273994133808</v>
       </c>
       <c r="E5">
-        <v>0.0034431193034834</v>
+        <v>-3.542495323927142e-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.007520280883909436</v>
+        <v>-7.73733299865853e-05</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.159299603870068e-05</v>
+        <v>-1.192759597756776e-07</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -596,7 +596,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>3.275748895248398e-05</v>
+        <v>-0.01498056799391634</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5.685127746346552e-08</v>
+        <v>-2.599907906386534e-05</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>8.417480421485379e-05</v>
+        <v>-0.000305599911371246</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.569106300143176e-06</v>
+        <v>-9.327243105872185e-06</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>5.102304228898902e-05</v>
+        <v>-1.084236558313023e-07</v>
       </c>
       <c r="C8">
-        <v>0.0002422281359031331</v>
+        <v>-0.0001024096527544316</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07481189163809177</v>
+        <v>-0.0001560282144055236</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>-1.08436056791561e-05</v>
+        <v>-7.647154518508614e-07</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.001076618967999821</v>
+        <v>7.592558904434554e-05</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -724,16 +724,16 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>6.430516430100397e-05</v>
+        <v>-3.6940867857993e-06</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0008815013716230169</v>
+        <v>1.049179627443664e-05</v>
       </c>
       <c r="E10">
-        <v>0.0002032654851973348</v>
+        <v>2.419304564682534e-06</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -742,13 +742,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0005468151603054139</v>
+        <v>-0.0004549717250483809</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.843953972435202e-07</v>
+        <v>8.145804031300941e-09</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -756,7 +756,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>1.326670997059409e-06</v>
+        <v>-3.052555257454515e-07</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.002432781577226706</v>
+        <v>-0.001376705840812065</v>
       </c>
       <c r="I11">
         <v>0</v>

--- a/Ecopulpers/Charts/Energy Change by Activities.xlsx
+++ b/Ecopulpers/Charts/Energy Change by Activities.xlsx
@@ -468,7 +468,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.008722347789444029</v>
+        <v>-0.8456721019465476</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>-1.51378112036582e-05</v>
+        <v>-0.001467681055260073</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>-9.913082271717499e-08</v>
+        <v>-9.611129812764352e-06</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>-1.028731060870314e-05</v>
+        <v>-0.0009973959156024392</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.01655776917414187</v>
+        <v>-1.605341970103837</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>-0.0005053611931487012</v>
+        <v>-0.04899678965826126</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-1.085805115508265e-05</v>
+        <v>-0.001052723966949998</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.0001536273994133808</v>
+        <v>-0.01489468452200526</v>
       </c>
       <c r="E5">
-        <v>-3.542495323927142e-05</v>
+        <v>-0.003434566428040853</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>-7.73733299865853e-05</v>
+        <v>-0.007501600139221409</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>-1.192759597756776e-07</v>
+        <v>-1.156419847347934e-05</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -596,7 +596,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.01498056799391634</v>
+        <v>-1.452425980958651</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>-2.599907906386534e-05</v>
+        <v>-0.002520714697269</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.000305599911371246</v>
+        <v>-0.02962907710752916</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-9.327243105872185e-06</v>
+        <v>-0.0009043117831879499</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-1.084236558313023e-07</v>
+        <v>-1.051225801518285e-05</v>
       </c>
       <c r="C8">
-        <v>-0.0001024096527544316</v>
+        <v>-0.009929239795383182</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>-0.0001560282144055236</v>
+        <v>-0.01512774051298038</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>-7.647154518508614e-07</v>
+        <v>-7.411219601749508e-05</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.592558904434554e-05</v>
+        <v>0.007358308512266376</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -724,16 +724,16 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>-3.6940867857993e-06</v>
+        <v>-0.000358142663799299</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.049179627443664e-05</v>
+        <v>0.00101741758044227</v>
       </c>
       <c r="E10">
-        <v>2.419304564682534e-06</v>
+        <v>0.0002346064170524187</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -742,13 +742,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>-0.0004549717250483809</v>
+        <v>-0.0441112302005422</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.145804031300941e-09</v>
+        <v>7.899203939842891e-07</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -756,7 +756,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>-3.052555257454515e-07</v>
+        <v>-2.95911003860283e-05</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>-0.001376705840812065</v>
+        <v>-0.1334753475530306</v>
       </c>
       <c r="I11">
         <v>0</v>
